--- a/Journals_Tests/Login form Test Cases.xlsx
+++ b/Journals_Tests/Login form Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.NET\Journals_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Test cases for login form</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">7. Enter incorrect email and correct password </t>
   </si>
   <si>
-    <t>8.Enter "space" before correct username and enter password</t>
-  </si>
-  <si>
     <t>1.Click to "login" element</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>3. Enter correct email and password</t>
+  </si>
+  <si>
+    <t>8.Enter "space" before correct username and enter correct password</t>
+  </si>
+  <si>
+    <t>9. Leave empty fields of login and password</t>
   </si>
 </sst>
 </file>
@@ -122,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -151,6 +160,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,116 +453,135 @@
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
